--- a/data/listQuiz_XDQLDACNTT_Part1_1-100.xlsx
+++ b/data/listQuiz_XDQLDACNTT_Part1_1-100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tai_lieu_dai_hoc\Ki5\KPM\XD&amp;QLDA\OnTap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Buid Web\data_web_kiemtra\XD&amp;&amp;QLDA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AFFE0-F0C8-4136-8F46-86F3A7131D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44077E7-A5CB-45CA-AB16-C7DAE8B5A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create a Quiz" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1475,21 +1475,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1507,22 +1492,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1618,6 +1587,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1858,26 +1843,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="97.140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="108.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="1" width="97.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="19.5546875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="19.5546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="108.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="44.109375" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="12.5546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1972,8 +1957,7 @@
       <c r="I3" s="9">
         <v>30</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2085,29 +2069,29 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23">
+      <c r="G8" s="13"/>
+      <c r="H8" s="10">
         <v>4</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="9">
         <v>30</v>
       </c>
       <c r="J8" s="9"/>
@@ -2891,7 +2875,7 @@
       <c r="D37" s="1">
         <v>4</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="23" t="s">
         <v>425</v>
       </c>
       <c r="F37" s="1">
@@ -3029,7 +3013,7 @@
       <c r="D42" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="23" t="s">
         <v>425</v>
       </c>
       <c r="F42" s="1">
@@ -3140,7 +3124,7 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="23" t="s">
         <v>425</v>
       </c>
       <c r="G46" s="1"/>
@@ -5818,10 +5802,10 @@
     <row r="206" spans="1:9" ht="15" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="9"/>
-      <c r="C206" s="27"/>
+      <c r="C206" s="22"/>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
-      <c r="F206" s="27"/>
+      <c r="F206" s="22"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="9"/>
@@ -6357,8 +6341,8 @@
       <c r="B253" s="9"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
-      <c r="E253" s="25"/>
-      <c r="F253" s="25"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
       <c r="G253" s="13"/>
       <c r="H253" s="10"/>
       <c r="I253" s="9"/>
@@ -6366,8 +6350,8 @@
     <row r="254" spans="1:10" ht="15" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="9"/>
-      <c r="C254" s="25"/>
-      <c r="D254" s="25"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -6616,7 +6600,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" ht="14.25">
+    <row r="276" spans="1:10" ht="13.8">
       <c r="A276" s="1"/>
       <c r="B276" s="9"/>
       <c r="C276" s="13"/>
@@ -6782,7 +6766,7 @@
       <c r="I290" s="9"/>
     </row>
     <row r="291" spans="1:10" ht="15" customHeight="1">
-      <c r="A291" s="25"/>
+      <c r="A291" s="20"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
@@ -6880,7 +6864,7 @@
       <sortCondition ref="A2:A299"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C76:H294 A3:B294">
+  <conditionalFormatting sqref="A3:B294 C76:H294">
     <cfRule type="notContainsBlanks" dxfId="17" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -6888,69 +6872,67 @@
       <formula>AND(OR(NOT(ISBLANK($B3)),NOT(ISBLANK($C3)),NOT(ISBLANK($D3)),NOT(ISBLANK($E3)),NOT(ISBLANK($F3)),NOT(ISBLANK($G3)),NOT(ISBLANK($H3)),NOT(ISBLANK($I3)),NOT(ISBLANK($J3))),ISBLANK($A3))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A295:H299 J295:XFD299">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+      <formula>LEN(TRIM(A295))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>AND(OR(NOT(ISBLANK($B295)),NOT(ISBLANK($C295)),NOT(ISBLANK($D295)),NOT(ISBLANK($E295)),NOT(ISBLANK($F295)),NOT(ISBLANK($G295)),NOT(ISBLANK($H295)),NOT(ISBLANK($I295)),NOT(ISBLANK($J295))),ISBLANK($A295))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G75">
+    <cfRule type="expression" dxfId="13" priority="23">
+      <formula>AND(OR($B3="Open-Ended",$B3="Draw"),ISBLANK(C3))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 C4:H75 I4:I299">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="22">
       <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G75">
-    <cfRule type="expression" dxfId="14" priority="23">
-      <formula>AND(OR($B3="Open-Ended",$B3="Draw"),ISBLANK(C3))</formula>
+  <conditionalFormatting sqref="D3:F3 C3:D75">
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>NOT(ISBLANK($A3))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:F3 C3:D75">
-    <cfRule type="expression" dxfId="13" priority="25">
+    <cfRule type="expression" dxfId="10" priority="25">
       <formula>AND(OR($B3="Open-Ended",$B3="Draw"),NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:F3 C3:D75">
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>NOT(ISBLANK($A3))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D3:G75">
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="9" priority="26">
       <formula>AND($B3="Fill-in-the-Blank",ISBLANK(D3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H75">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>AND(OR($B3="Open-Ended",$B3="Poll",$B3="Fill-in-the-Blank"),NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(OR($B3="Open-Ended",$B3="Poll",$B3="Fill-in-the-Blank",$B3="Draw"),ISBLANK(H3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>AND(NOT(ISBLANK(H3)),NOT(OR(AND(OR(AND(LEN(H3)=3,LEN(SUBSTITUTE(H3,",",""))=2),AND(LEN(H3)=5,LEN(SUBSTITUTE(H3,",",""))=3),AND(LEN(H3)=7,LEN(SUBSTITUTE(H3,",",""))=4),AND(LEN(H3)=9,LEN(SUBSTITUTE(H3,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(H3&gt;=1,H3&lt;=5))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>AND(NOT(ISBLANK(H3)),OR(AND(OR(AND(LEN(H3)=3,LEN(SUBSTITUTE(H3,",",""))=2),AND(LEN(H3)=5,LEN(SUBSTITUTE(H3,",",""))=3),AND(LEN(H3)=7,LEN(SUBSTITUTE(H3,",",""))=4),AND(LEN(H3)=9,LEN(SUBSTITUTE(H3,",",""))=5)),OR(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,,",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"1",""),"2",""),"3",""),"4",""),"5","")=",,,,")),AND(H3&gt;=1,H3&lt;=5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>AND(NOT(ISBLANK(A3)),ISBLANK(H3))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="18" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="18" stopIfTrue="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="notBetween">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J75">
-    <cfRule type="beginsWith" dxfId="3" priority="20" operator="beginsWith" text="http">
+    <cfRule type="beginsWith" dxfId="1" priority="20" operator="beginsWith" text="http">
       <formula>LEFT((J3),LEN("http"))=("http")</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
       <formula>LEN(TRIM(J3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A295:H299 J295:XFD299">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A295))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(OR(NOT(ISBLANK($B295)),NOT(ISBLANK($C295)),NOT(ISBLANK($D295)),NOT(ISBLANK($E295)),NOT(ISBLANK($F295)),NOT(ISBLANK($G295)),NOT(ISBLANK($H295)),NOT(ISBLANK($I295)),NOT(ISBLANK($J295))),ISBLANK($A295))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
